--- a/contratos/contratos-10-2020.xlsx
+++ b/contratos/contratos-10-2020.xlsx
@@ -1048,7 +1048,7 @@
     <t>IMAGEN SISTEMAS DE COPIADO S.R.L.</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>MARTINEZ FEDERICO AUGUSTO</t>
@@ -1096,7 +1096,7 @@
     <t>PEREYRA ANDREA BEATRIZ</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>CASA SPAIS S.A.</t>
@@ -1279,7 +1279,7 @@
     <t>RADIO Y TELEVISION ARGENTINA S.E.</t>
   </si>
   <si>
-    <t>RICCOTTI, MARIANA EDITH</t>
+    <t>RICCOTTI. MARIANA EDITH</t>
   </si>
   <si>
     <t>ROJAS PEDRO MARTIN</t>
@@ -1303,13 +1303,13 @@
     <t>KUTTEL SILVIA YOLANDA</t>
   </si>
   <si>
-    <t>OLIVERA, FLORENCIO</t>
+    <t>OLIVERA. FLORENCIO</t>
   </si>
   <si>
     <t>SANDOVAL GRISELDA LINA</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>WEIGANDT GERARDO ARTURO</t>
@@ -1381,7 +1381,7 @@
     <t>COOPERATIVA DE TRABAJO SG  LTDA.</t>
   </si>
   <si>
-    <t>ALVAREZ, RENZO JOEL</t>
+    <t>ALVAREZ. RENZO JOEL</t>
   </si>
   <si>
     <t>CALLEJAS MIRTA CRISTINA</t>
@@ -1390,7 +1390,7 @@
     <t>ENERGIA DE ENTRE RIOS S.A.</t>
   </si>
   <si>
-    <t>ODIARD, OSCAR HERNAN</t>
+    <t>ODIARD. OSCAR HERNAN</t>
   </si>
   <si>
     <t>COOPERATIVA DE TRABAJO DE MEDICINA ASISTENCIA INTEGRADA VIDA EMERGENCIAS MEDICAS LIMITADA</t>
@@ -1624,7 +1624,7 @@
     <t>TODO RULEMANES</t>
   </si>
   <si>
-    <t>PARRAVICINI VIRGINIA VANINA, VIRGINIA VANINA</t>
+    <t>PARRAVICINI VIRGINIA VANINA. VIRGINIA VANINA</t>
   </si>
   <si>
     <t xml:space="preserve">MATAFUEGOS VALORI </t>
@@ -1885,763 +1885,763 @@
     <t>20</t>
   </si>
   <si>
-    <t>709.000,00</t>
-  </si>
-  <si>
-    <t>20.000,00</t>
-  </si>
-  <si>
-    <t>960.000,00</t>
-  </si>
-  <si>
-    <t>4.450,00</t>
-  </si>
-  <si>
-    <t>990,00</t>
-  </si>
-  <si>
-    <t>53.475,00</t>
-  </si>
-  <si>
-    <t>8.840,00</t>
-  </si>
-  <si>
-    <t>44.226,00</t>
-  </si>
-  <si>
-    <t>2.844,07</t>
-  </si>
-  <si>
-    <t>1.174.200,60</t>
-  </si>
-  <si>
-    <t>3.694,94</t>
-  </si>
-  <si>
-    <t>14.005,29</t>
-  </si>
-  <si>
-    <t>2.726,40</t>
-  </si>
-  <si>
-    <t>70.070,00</t>
-  </si>
-  <si>
-    <t>22.400,00</t>
-  </si>
-  <si>
-    <t>390.730,45</t>
-  </si>
-  <si>
-    <t>4.800,00</t>
-  </si>
-  <si>
-    <t>1.871.814,36</t>
-  </si>
-  <si>
-    <t>65.560,00</t>
-  </si>
-  <si>
-    <t>322.520,00</t>
-  </si>
-  <si>
-    <t>402.811,62</t>
-  </si>
-  <si>
-    <t>8.400,00</t>
-  </si>
-  <si>
-    <t>193.327,94</t>
-  </si>
-  <si>
-    <t>115.822,72</t>
-  </si>
-  <si>
-    <t>3.529,40</t>
-  </si>
-  <si>
-    <t>58.382,28</t>
-  </si>
-  <si>
-    <t>5.995,00</t>
-  </si>
-  <si>
-    <t>66.300,64</t>
-  </si>
-  <si>
-    <t>8.800,00</t>
-  </si>
-  <si>
-    <t>5.000,00</t>
-  </si>
-  <si>
-    <t>21.780,00</t>
-  </si>
-  <si>
-    <t>500,94</t>
-  </si>
-  <si>
-    <t>290,00</t>
-  </si>
-  <si>
-    <t>137.387,84</t>
-  </si>
-  <si>
-    <t>101.264,00</t>
-  </si>
-  <si>
-    <t>817.550,00</t>
-  </si>
-  <si>
-    <t>32.070,00</t>
-  </si>
-  <si>
-    <t>26.939,80</t>
-  </si>
-  <si>
-    <t>2.100,00</t>
-  </si>
-  <si>
-    <t>9.093,00</t>
-  </si>
-  <si>
-    <t>1.571,76</t>
-  </si>
-  <si>
-    <t>658.600,00</t>
-  </si>
-  <si>
-    <t>5.227,50</t>
-  </si>
-  <si>
-    <t>211.900,00</t>
-  </si>
-  <si>
-    <t>1.518,00</t>
-  </si>
-  <si>
-    <t>85.872,85</t>
-  </si>
-  <si>
-    <t>59.000,00</t>
-  </si>
-  <si>
-    <t>19.509,12</t>
-  </si>
-  <si>
-    <t>38.244,00</t>
-  </si>
-  <si>
-    <t>1.590,00</t>
-  </si>
-  <si>
-    <t>3.400,00</t>
-  </si>
-  <si>
-    <t>103.196,50</t>
-  </si>
-  <si>
-    <t>12.568,97</t>
-  </si>
-  <si>
-    <t>1.237,00</t>
-  </si>
-  <si>
-    <t>25.982,36</t>
-  </si>
-  <si>
-    <t>6.800,00</t>
-  </si>
-  <si>
-    <t>21.411,51</t>
-  </si>
-  <si>
-    <t>21.283,02</t>
-  </si>
-  <si>
-    <t>26.000,00</t>
-  </si>
-  <si>
-    <t>590.625,20</t>
-  </si>
-  <si>
-    <t>2.530,00</t>
-  </si>
-  <si>
-    <t>2.324,30</t>
-  </si>
-  <si>
-    <t>22.799,00</t>
-  </si>
-  <si>
-    <t>1.080,00</t>
-  </si>
-  <si>
-    <t>67.056,45</t>
-  </si>
-  <si>
-    <t>20.700,00</t>
-  </si>
-  <si>
-    <t>9.456,64</t>
-  </si>
-  <si>
-    <t>11.500,00</t>
-  </si>
-  <si>
-    <t>1.257,00</t>
-  </si>
-  <si>
-    <t>722.988,00</t>
-  </si>
-  <si>
-    <t>13.600,00</t>
-  </si>
-  <si>
-    <t>8.680,00</t>
-  </si>
-  <si>
-    <t>76.430,50</t>
-  </si>
-  <si>
-    <t>2.720,00</t>
-  </si>
-  <si>
-    <t>9.810,00</t>
-  </si>
-  <si>
-    <t>22.030,51</t>
-  </si>
-  <si>
-    <t>38.130,00</t>
-  </si>
-  <si>
-    <t>43.480,00</t>
-  </si>
-  <si>
-    <t>53.849,98</t>
-  </si>
-  <si>
-    <t>700,00</t>
-  </si>
-  <si>
-    <t>250.000,00</t>
-  </si>
-  <si>
-    <t>1.790,00</t>
-  </si>
-  <si>
-    <t>66.600,00</t>
-  </si>
-  <si>
-    <t>21.100,00</t>
-  </si>
-  <si>
-    <t>89.202,00</t>
-  </si>
-  <si>
-    <t>1.085,70</t>
-  </si>
-  <si>
-    <t>980,00</t>
-  </si>
-  <si>
-    <t>3.300,00</t>
-  </si>
-  <si>
-    <t>3.078,00</t>
-  </si>
-  <si>
-    <t>137.775,00</t>
-  </si>
-  <si>
-    <t>46.608,00</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>10.450,00</t>
-  </si>
-  <si>
-    <t>22.000,00</t>
-  </si>
-  <si>
-    <t>2.200,00</t>
-  </si>
-  <si>
-    <t>36,64</t>
-  </si>
-  <si>
-    <t>10.720,00</t>
-  </si>
-  <si>
-    <t>17.106,35</t>
-  </si>
-  <si>
-    <t>18.600,00</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>3.855,00</t>
-  </si>
-  <si>
-    <t>18.965,02</t>
-  </si>
-  <si>
-    <t>14.204,61</t>
-  </si>
-  <si>
-    <t>36.173,43</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>40.091,00</t>
-  </si>
-  <si>
-    <t>15.170,00</t>
-  </si>
-  <si>
-    <t>6.580,00</t>
-  </si>
-  <si>
-    <t>22.645,00</t>
-  </si>
-  <si>
-    <t>13.305,00</t>
-  </si>
-  <si>
-    <t>759,80</t>
-  </si>
-  <si>
-    <t>1.600,00</t>
-  </si>
-  <si>
-    <t>2.510,00</t>
-  </si>
-  <si>
-    <t>17.520,00</t>
-  </si>
-  <si>
-    <t>6.850,00</t>
-  </si>
-  <si>
-    <t>5.635,00</t>
-  </si>
-  <si>
-    <t>71.685,68</t>
-  </si>
-  <si>
-    <t>2.872,00</t>
-  </si>
-  <si>
-    <t>640,00</t>
-  </si>
-  <si>
-    <t>7.320,00</t>
-  </si>
-  <si>
-    <t>1.507,80</t>
-  </si>
-  <si>
-    <t>24.957,00</t>
-  </si>
-  <si>
-    <t>1.450,00</t>
-  </si>
-  <si>
-    <t>6.200,00</t>
-  </si>
-  <si>
-    <t>44.100,00</t>
-  </si>
-  <si>
-    <t>12.250,00</t>
-  </si>
-  <si>
-    <t>5.900,00</t>
-  </si>
-  <si>
-    <t>9.323,00</t>
-  </si>
-  <si>
-    <t>7.008,68</t>
-  </si>
-  <si>
-    <t>23.700,00</t>
-  </si>
-  <si>
-    <t>5.400,00</t>
-  </si>
-  <si>
-    <t>218.991,00</t>
-  </si>
-  <si>
-    <t>8.793,39</t>
-  </si>
-  <si>
-    <t>95.760,00</t>
-  </si>
-  <si>
-    <t>5.987,18</t>
-  </si>
-  <si>
-    <t>86.000,00</t>
-  </si>
-  <si>
-    <t>11.280,00</t>
-  </si>
-  <si>
-    <t>18.000,00</t>
-  </si>
-  <si>
-    <t>8.000,00</t>
-  </si>
-  <si>
-    <t>9.000,00</t>
-  </si>
-  <si>
-    <t>13.849,00</t>
-  </si>
-  <si>
-    <t>41.000,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>78.000,00</t>
-  </si>
-  <si>
-    <t>19.000,00</t>
-  </si>
-  <si>
-    <t>39.000,00</t>
-  </si>
-  <si>
-    <t>7.000,20</t>
-  </si>
-  <si>
-    <t>17.000,00</t>
-  </si>
-  <si>
-    <t>12.637,47</t>
-  </si>
-  <si>
-    <t>32.974,92</t>
-  </si>
-  <si>
-    <t>19.376,00</t>
-  </si>
-  <si>
-    <t>8.692,77</t>
-  </si>
-  <si>
-    <t>80.181,00</t>
-  </si>
-  <si>
-    <t>28.840,00</t>
-  </si>
-  <si>
-    <t>28.360,04</t>
-  </si>
-  <si>
-    <t>10.719,24</t>
-  </si>
-  <si>
-    <t>68.110,00</t>
-  </si>
-  <si>
-    <t>98.620,00</t>
-  </si>
-  <si>
-    <t>1.643,40</t>
-  </si>
-  <si>
-    <t>2.940.000,00</t>
-  </si>
-  <si>
-    <t>6.050,00</t>
-  </si>
-  <si>
-    <t>42.000,00</t>
-  </si>
-  <si>
-    <t>16.500,00</t>
-  </si>
-  <si>
-    <t>7.000,00</t>
-  </si>
-  <si>
-    <t>52.000,00</t>
-  </si>
-  <si>
-    <t>12.000,00</t>
-  </si>
-  <si>
-    <t>10.500,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>20.870,00</t>
-  </si>
-  <si>
-    <t>45.000,00</t>
-  </si>
-  <si>
-    <t>25.000,00</t>
-  </si>
-  <si>
-    <t>23.205,00</t>
-  </si>
-  <si>
-    <t>20.500,00</t>
-  </si>
-  <si>
-    <t>58.000,00</t>
-  </si>
-  <si>
-    <t>36.000,00</t>
-  </si>
-  <si>
-    <t>9.800,00</t>
-  </si>
-  <si>
-    <t>29.300,00</t>
-  </si>
-  <si>
-    <t>19.870,00</t>
-  </si>
-  <si>
-    <t>46.700,00</t>
-  </si>
-  <si>
-    <t>2.800,00</t>
-  </si>
-  <si>
-    <t>7.974,15</t>
-  </si>
-  <si>
-    <t>20.175,00</t>
-  </si>
-  <si>
-    <t>39.750,00</t>
-  </si>
-  <si>
-    <t>2.143,00</t>
-  </si>
-  <si>
-    <t>53.120,00</t>
-  </si>
-  <si>
-    <t>43.936,00</t>
-  </si>
-  <si>
-    <t>6.900,00</t>
-  </si>
-  <si>
-    <t>4.747,28</t>
-  </si>
-  <si>
-    <t>220,30</t>
-  </si>
-  <si>
-    <t>7.180,00</t>
-  </si>
-  <si>
-    <t>150.340,00</t>
-  </si>
-  <si>
-    <t>13.200,00</t>
-  </si>
-  <si>
-    <t>11.400,00</t>
-  </si>
-  <si>
-    <t>18.264,84</t>
-  </si>
-  <si>
-    <t>19.744,00</t>
-  </si>
-  <si>
-    <t>24.688,82</t>
-  </si>
-  <si>
-    <t>30.000,00</t>
-  </si>
-  <si>
-    <t>3.185,00</t>
-  </si>
-  <si>
-    <t>1.806,11</t>
-  </si>
-  <si>
-    <t>104.130,00</t>
-  </si>
-  <si>
-    <t>9.907,82</t>
-  </si>
-  <si>
-    <t>6.100,00</t>
-  </si>
-  <si>
-    <t>7.229,12</t>
-  </si>
-  <si>
-    <t>3.200,00</t>
-  </si>
-  <si>
-    <t>16.369,50</t>
-  </si>
-  <si>
-    <t>6.408,60</t>
-  </si>
-  <si>
-    <t>4.100,00</t>
-  </si>
-  <si>
-    <t>7.500,00</t>
-  </si>
-  <si>
-    <t>19.200,00</t>
-  </si>
-  <si>
-    <t>101.300,00</t>
-  </si>
-  <si>
-    <t>15.000,00</t>
-  </si>
-  <si>
-    <t>300,00</t>
-  </si>
-  <si>
-    <t>78.907,47</t>
-  </si>
-  <si>
-    <t>1.176,25</t>
-  </si>
-  <si>
-    <t>80.000,00</t>
-  </si>
-  <si>
-    <t>40.000,00</t>
-  </si>
-  <si>
-    <t>55.000,00</t>
-  </si>
-  <si>
-    <t>23.500,00</t>
-  </si>
-  <si>
-    <t>8.500,00</t>
-  </si>
-  <si>
-    <t>14.133,37</t>
-  </si>
-  <si>
-    <t>14.330,00</t>
-  </si>
-  <si>
-    <t>177.600,00</t>
-  </si>
-  <si>
-    <t>14.630,00</t>
-  </si>
-  <si>
-    <t>446.000,00</t>
-  </si>
-  <si>
-    <t>2.534.974,00</t>
-  </si>
-  <si>
-    <t>408.210,00</t>
-  </si>
-  <si>
-    <t>372.480,00</t>
-  </si>
-  <si>
-    <t>325.800,00</t>
-  </si>
-  <si>
-    <t>347.000,00</t>
-  </si>
-  <si>
-    <t>309.000,00</t>
-  </si>
-  <si>
-    <t>588.000,00</t>
-  </si>
-  <si>
-    <t>837.990,00</t>
-  </si>
-  <si>
-    <t>1.046.000,00</t>
-  </si>
-  <si>
-    <t>365.840,00</t>
-  </si>
-  <si>
-    <t>618.000,00</t>
-  </si>
-  <si>
-    <t>638.340,00</t>
-  </si>
-  <si>
-    <t>609.840,00</t>
-  </si>
-  <si>
-    <t>910.680,00</t>
-  </si>
-  <si>
-    <t>898.060,00</t>
-  </si>
-  <si>
-    <t>337.043,00</t>
-  </si>
-  <si>
-    <t>343.239,76</t>
-  </si>
-  <si>
-    <t>956.305,81</t>
-  </si>
-  <si>
-    <t>3.157.649,87</t>
-  </si>
-  <si>
-    <t>3.365.889,91</t>
-  </si>
-  <si>
-    <t>1.336,96</t>
-  </si>
-  <si>
-    <t>148.780,95</t>
-  </si>
-  <si>
-    <t>1.960,00</t>
-  </si>
-  <si>
-    <t>4.700,00</t>
-  </si>
-  <si>
-    <t>245.340,00</t>
-  </si>
-  <si>
-    <t>25.192,17</t>
-  </si>
-  <si>
-    <t>1.700,00</t>
-  </si>
-  <si>
-    <t>2.929,52</t>
-  </si>
-  <si>
-    <t>163.312,00</t>
+    <t>709000.00</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>960000.00</t>
+  </si>
+  <si>
+    <t>4450.00</t>
+  </si>
+  <si>
+    <t>990.00</t>
+  </si>
+  <si>
+    <t>53475.00</t>
+  </si>
+  <si>
+    <t>8840.00</t>
+  </si>
+  <si>
+    <t>44226.00</t>
+  </si>
+  <si>
+    <t>2844.07</t>
+  </si>
+  <si>
+    <t>1174200.60</t>
+  </si>
+  <si>
+    <t>3694.94</t>
+  </si>
+  <si>
+    <t>14005.29</t>
+  </si>
+  <si>
+    <t>2726.40</t>
+  </si>
+  <si>
+    <t>70070.00</t>
+  </si>
+  <si>
+    <t>22400.00</t>
+  </si>
+  <si>
+    <t>390730.45</t>
+  </si>
+  <si>
+    <t>4800.00</t>
+  </si>
+  <si>
+    <t>1871814.36</t>
+  </si>
+  <si>
+    <t>65560.00</t>
+  </si>
+  <si>
+    <t>322520.00</t>
+  </si>
+  <si>
+    <t>402811.62</t>
+  </si>
+  <si>
+    <t>8400.00</t>
+  </si>
+  <si>
+    <t>193327.94</t>
+  </si>
+  <si>
+    <t>115822.72</t>
+  </si>
+  <si>
+    <t>3529.40</t>
+  </si>
+  <si>
+    <t>58382.28</t>
+  </si>
+  <si>
+    <t>5995.00</t>
+  </si>
+  <si>
+    <t>66300.64</t>
+  </si>
+  <si>
+    <t>8800.00</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>21780.00</t>
+  </si>
+  <si>
+    <t>500.94</t>
+  </si>
+  <si>
+    <t>290.00</t>
+  </si>
+  <si>
+    <t>137387.84</t>
+  </si>
+  <si>
+    <t>101264.00</t>
+  </si>
+  <si>
+    <t>817550.00</t>
+  </si>
+  <si>
+    <t>32070.00</t>
+  </si>
+  <si>
+    <t>26939.80</t>
+  </si>
+  <si>
+    <t>2100.00</t>
+  </si>
+  <si>
+    <t>9093.00</t>
+  </si>
+  <si>
+    <t>1571.76</t>
+  </si>
+  <si>
+    <t>658600.00</t>
+  </si>
+  <si>
+    <t>5227.50</t>
+  </si>
+  <si>
+    <t>211900.00</t>
+  </si>
+  <si>
+    <t>1518.00</t>
+  </si>
+  <si>
+    <t>85872.85</t>
+  </si>
+  <si>
+    <t>59000.00</t>
+  </si>
+  <si>
+    <t>19509.12</t>
+  </si>
+  <si>
+    <t>38244.00</t>
+  </si>
+  <si>
+    <t>1590.00</t>
+  </si>
+  <si>
+    <t>3400.00</t>
+  </si>
+  <si>
+    <t>103196.50</t>
+  </si>
+  <si>
+    <t>12568.97</t>
+  </si>
+  <si>
+    <t>1237.00</t>
+  </si>
+  <si>
+    <t>25982.36</t>
+  </si>
+  <si>
+    <t>6800.00</t>
+  </si>
+  <si>
+    <t>21411.51</t>
+  </si>
+  <si>
+    <t>21283.02</t>
+  </si>
+  <si>
+    <t>26000.00</t>
+  </si>
+  <si>
+    <t>590625.20</t>
+  </si>
+  <si>
+    <t>2530.00</t>
+  </si>
+  <si>
+    <t>2324.30</t>
+  </si>
+  <si>
+    <t>22799.00</t>
+  </si>
+  <si>
+    <t>1080.00</t>
+  </si>
+  <si>
+    <t>67056.45</t>
+  </si>
+  <si>
+    <t>20700.00</t>
+  </si>
+  <si>
+    <t>9456.64</t>
+  </si>
+  <si>
+    <t>11500.00</t>
+  </si>
+  <si>
+    <t>1257.00</t>
+  </si>
+  <si>
+    <t>722988.00</t>
+  </si>
+  <si>
+    <t>13600.00</t>
+  </si>
+  <si>
+    <t>8680.00</t>
+  </si>
+  <si>
+    <t>76430.50</t>
+  </si>
+  <si>
+    <t>2720.00</t>
+  </si>
+  <si>
+    <t>9810.00</t>
+  </si>
+  <si>
+    <t>22030.51</t>
+  </si>
+  <si>
+    <t>38130.00</t>
+  </si>
+  <si>
+    <t>43480.00</t>
+  </si>
+  <si>
+    <t>53849.98</t>
+  </si>
+  <si>
+    <t>700.00</t>
+  </si>
+  <si>
+    <t>250000.00</t>
+  </si>
+  <si>
+    <t>1790.00</t>
+  </si>
+  <si>
+    <t>66600.00</t>
+  </si>
+  <si>
+    <t>21100.00</t>
+  </si>
+  <si>
+    <t>89202.00</t>
+  </si>
+  <si>
+    <t>1085.70</t>
+  </si>
+  <si>
+    <t>980.00</t>
+  </si>
+  <si>
+    <t>3300.00</t>
+  </si>
+  <si>
+    <t>3078.00</t>
+  </si>
+  <si>
+    <t>137775.00</t>
+  </si>
+  <si>
+    <t>46608.00</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>10450.00</t>
+  </si>
+  <si>
+    <t>22000.00</t>
+  </si>
+  <si>
+    <t>2200.00</t>
+  </si>
+  <si>
+    <t>36.64</t>
+  </si>
+  <si>
+    <t>10720.00</t>
+  </si>
+  <si>
+    <t>17106.35</t>
+  </si>
+  <si>
+    <t>18600.00</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>3855.00</t>
+  </si>
+  <si>
+    <t>18965.02</t>
+  </si>
+  <si>
+    <t>14204.61</t>
+  </si>
+  <si>
+    <t>36173.43</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>40091.00</t>
+  </si>
+  <si>
+    <t>15170.00</t>
+  </si>
+  <si>
+    <t>6580.00</t>
+  </si>
+  <si>
+    <t>22645.00</t>
+  </si>
+  <si>
+    <t>13305.00</t>
+  </si>
+  <si>
+    <t>759.80</t>
+  </si>
+  <si>
+    <t>1600.00</t>
+  </si>
+  <si>
+    <t>2510.00</t>
+  </si>
+  <si>
+    <t>17520.00</t>
+  </si>
+  <si>
+    <t>6850.00</t>
+  </si>
+  <si>
+    <t>5635.00</t>
+  </si>
+  <si>
+    <t>71685.68</t>
+  </si>
+  <si>
+    <t>2872.00</t>
+  </si>
+  <si>
+    <t>640.00</t>
+  </si>
+  <si>
+    <t>7320.00</t>
+  </si>
+  <si>
+    <t>1507.80</t>
+  </si>
+  <si>
+    <t>24957.00</t>
+  </si>
+  <si>
+    <t>1450.00</t>
+  </si>
+  <si>
+    <t>6200.00</t>
+  </si>
+  <si>
+    <t>44100.00</t>
+  </si>
+  <si>
+    <t>12250.00</t>
+  </si>
+  <si>
+    <t>5900.00</t>
+  </si>
+  <si>
+    <t>9323.00</t>
+  </si>
+  <si>
+    <t>7008.68</t>
+  </si>
+  <si>
+    <t>23700.00</t>
+  </si>
+  <si>
+    <t>5400.00</t>
+  </si>
+  <si>
+    <t>218991.00</t>
+  </si>
+  <si>
+    <t>8793.39</t>
+  </si>
+  <si>
+    <t>95760.00</t>
+  </si>
+  <si>
+    <t>5987.18</t>
+  </si>
+  <si>
+    <t>86000.00</t>
+  </si>
+  <si>
+    <t>11280.00</t>
+  </si>
+  <si>
+    <t>18000.00</t>
+  </si>
+  <si>
+    <t>8000.00</t>
+  </si>
+  <si>
+    <t>9000.00</t>
+  </si>
+  <si>
+    <t>13849.00</t>
+  </si>
+  <si>
+    <t>41000.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>78000.00</t>
+  </si>
+  <si>
+    <t>19000.00</t>
+  </si>
+  <si>
+    <t>39000.00</t>
+  </si>
+  <si>
+    <t>7000.20</t>
+  </si>
+  <si>
+    <t>17000.00</t>
+  </si>
+  <si>
+    <t>12637.47</t>
+  </si>
+  <si>
+    <t>32974.92</t>
+  </si>
+  <si>
+    <t>19376.00</t>
+  </si>
+  <si>
+    <t>8692.77</t>
+  </si>
+  <si>
+    <t>80181.00</t>
+  </si>
+  <si>
+    <t>28840.00</t>
+  </si>
+  <si>
+    <t>28360.04</t>
+  </si>
+  <si>
+    <t>10719.24</t>
+  </si>
+  <si>
+    <t>68110.00</t>
+  </si>
+  <si>
+    <t>98620.00</t>
+  </si>
+  <si>
+    <t>1643.40</t>
+  </si>
+  <si>
+    <t>2940000.00</t>
+  </si>
+  <si>
+    <t>6050.00</t>
+  </si>
+  <si>
+    <t>42000.00</t>
+  </si>
+  <si>
+    <t>16500.00</t>
+  </si>
+  <si>
+    <t>7000.00</t>
+  </si>
+  <si>
+    <t>52000.00</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>10500.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>20870.00</t>
+  </si>
+  <si>
+    <t>45000.00</t>
+  </si>
+  <si>
+    <t>25000.00</t>
+  </si>
+  <si>
+    <t>23205.00</t>
+  </si>
+  <si>
+    <t>20500.00</t>
+  </si>
+  <si>
+    <t>58000.00</t>
+  </si>
+  <si>
+    <t>36000.00</t>
+  </si>
+  <si>
+    <t>9800.00</t>
+  </si>
+  <si>
+    <t>29300.00</t>
+  </si>
+  <si>
+    <t>19870.00</t>
+  </si>
+  <si>
+    <t>46700.00</t>
+  </si>
+  <si>
+    <t>2800.00</t>
+  </si>
+  <si>
+    <t>7974.15</t>
+  </si>
+  <si>
+    <t>20175.00</t>
+  </si>
+  <si>
+    <t>39750.00</t>
+  </si>
+  <si>
+    <t>2143.00</t>
+  </si>
+  <si>
+    <t>53120.00</t>
+  </si>
+  <si>
+    <t>43936.00</t>
+  </si>
+  <si>
+    <t>6900.00</t>
+  </si>
+  <si>
+    <t>4747.28</t>
+  </si>
+  <si>
+    <t>220.30</t>
+  </si>
+  <si>
+    <t>7180.00</t>
+  </si>
+  <si>
+    <t>150340.00</t>
+  </si>
+  <si>
+    <t>13200.00</t>
+  </si>
+  <si>
+    <t>11400.00</t>
+  </si>
+  <si>
+    <t>18264.84</t>
+  </si>
+  <si>
+    <t>19744.00</t>
+  </si>
+  <si>
+    <t>24688.82</t>
+  </si>
+  <si>
+    <t>30000.00</t>
+  </si>
+  <si>
+    <t>3185.00</t>
+  </si>
+  <si>
+    <t>1806.11</t>
+  </si>
+  <si>
+    <t>104130.00</t>
+  </si>
+  <si>
+    <t>9907.82</t>
+  </si>
+  <si>
+    <t>6100.00</t>
+  </si>
+  <si>
+    <t>7229.12</t>
+  </si>
+  <si>
+    <t>3200.00</t>
+  </si>
+  <si>
+    <t>16369.50</t>
+  </si>
+  <si>
+    <t>6408.60</t>
+  </si>
+  <si>
+    <t>4100.00</t>
+  </si>
+  <si>
+    <t>7500.00</t>
+  </si>
+  <si>
+    <t>19200.00</t>
+  </si>
+  <si>
+    <t>101300.00</t>
+  </si>
+  <si>
+    <t>15000.00</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>78907.47</t>
+  </si>
+  <si>
+    <t>1176.25</t>
+  </si>
+  <si>
+    <t>80000.00</t>
+  </si>
+  <si>
+    <t>40000.00</t>
+  </si>
+  <si>
+    <t>55000.00</t>
+  </si>
+  <si>
+    <t>23500.00</t>
+  </si>
+  <si>
+    <t>8500.00</t>
+  </si>
+  <si>
+    <t>14133.37</t>
+  </si>
+  <si>
+    <t>14330.00</t>
+  </si>
+  <si>
+    <t>177600.00</t>
+  </si>
+  <si>
+    <t>14630.00</t>
+  </si>
+  <si>
+    <t>446000.00</t>
+  </si>
+  <si>
+    <t>2534974.00</t>
+  </si>
+  <si>
+    <t>408210.00</t>
+  </si>
+  <si>
+    <t>372480.00</t>
+  </si>
+  <si>
+    <t>325800.00</t>
+  </si>
+  <si>
+    <t>347000.00</t>
+  </si>
+  <si>
+    <t>309000.00</t>
+  </si>
+  <si>
+    <t>588000.00</t>
+  </si>
+  <si>
+    <t>837990.00</t>
+  </si>
+  <si>
+    <t>1046000.00</t>
+  </si>
+  <si>
+    <t>365840.00</t>
+  </si>
+  <si>
+    <t>618000.00</t>
+  </si>
+  <si>
+    <t>638340.00</t>
+  </si>
+  <si>
+    <t>609840.00</t>
+  </si>
+  <si>
+    <t>910680.00</t>
+  </si>
+  <si>
+    <t>898060.00</t>
+  </si>
+  <si>
+    <t>337043.00</t>
+  </si>
+  <si>
+    <t>343239.76</t>
+  </si>
+  <si>
+    <t>956305.81</t>
+  </si>
+  <si>
+    <t>3157649.87</t>
+  </si>
+  <si>
+    <t>3365889.91</t>
+  </si>
+  <si>
+    <t>1336.96</t>
+  </si>
+  <si>
+    <t>148780.95</t>
+  </si>
+  <si>
+    <t>1960.00</t>
+  </si>
+  <si>
+    <t>4700.00</t>
+  </si>
+  <si>
+    <t>245340.00</t>
+  </si>
+  <si>
+    <t>25192.17</t>
+  </si>
+  <si>
+    <t>1700.00</t>
+  </si>
+  <si>
+    <t>2929.52</t>
+  </si>
+  <si>
+    <t>163312.00</t>
   </si>
 </sst>
 </file>
